--- a/data/trans_dic/P32C-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P32C-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.02888570905730923</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.03030460594198265</v>
+        <v>0.03030460594198264</v>
       </c>
     </row>
     <row r="5">
@@ -708,16 +708,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01407687459569303</v>
+        <v>0.012791394132521</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.009458368713306617</v>
+        <v>0.009580911955743543</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02025127923484935</v>
+        <v>0.02211007573117476</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0187362949137881</v>
+        <v>0.01923336041122697</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01289294459378843</v>
+        <v>0.01311605890061609</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.006537029297598794</v>
+        <v>0.007043520486228223</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01651507122732244</v>
+        <v>0.01714132824663585</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01718669472293733</v>
+        <v>0.01644590408884061</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04255096076065858</v>
+        <v>0.04035289636230596</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03369092169290187</v>
+        <v>0.03388826917337945</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06551917789747801</v>
+        <v>0.06581901944887543</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06087971603500386</v>
+        <v>0.06245450061643056</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06585976797605318</v>
+        <v>0.07173678631754679</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>0.04039283309938881</v>
+        <v>0.04015722302948009</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04066458464297482</v>
+        <v>0.04696639347683637</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03600971784285582</v>
+        <v>0.03754574064595252</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02310263930591399</v>
+        <v>0.02403268738135665</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04879030317662089</v>
+        <v>0.04729939048484407</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05137694476506712</v>
+        <v>0.05105364742361674</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.009444839205688461</v>
+        <v>0.009267949445498946</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01295256833159215</v>
+        <v>0.01255933115197436</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.006768859282942968</v>
+        <v>0.006900709011201489</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.003338113854876547</v>
+        <v>0.002942386709201353</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.001904129706081098</v>
+        <v>0.001884573640517291</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.001678008488700766</v>
+        <v>0.001684637089371915</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.001520856602597363</v>
+        <v>0.001415385937374082</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.007451174999921503</v>
+        <v>0.007249873440091201</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.008166014215529673</v>
+        <v>0.008600490197414547</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.009861839597265273</v>
+        <v>0.009639991094997002</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.005903187681211291</v>
+        <v>0.006131959129665521</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.006295464475338689</v>
+        <v>0.006563371088193915</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02593061825960023</v>
+        <v>0.02639396731387645</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02835549051937619</v>
+        <v>0.02904317302115407</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01936795713835074</v>
+        <v>0.02011441934817932</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01260442665635566</v>
+        <v>0.01335092500092255</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01917939808706175</v>
+        <v>0.01727103075706996</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01366632213375134</v>
+        <v>0.01372538508628154</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01487185287438124</v>
+        <v>0.01328938817758502</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03434829194476147</v>
+        <v>0.03627462749650388</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02085325581562198</v>
+        <v>0.02073815733439803</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02151844624614461</v>
+        <v>0.02091602339887391</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01482361451824216</v>
+        <v>0.01585535005869471</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01906417778262665</v>
+        <v>0.01776222824282541</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.01064898215888957</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.00990024003987835</v>
+        <v>0.009900240039878352</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.005242108809725906</v>
@@ -976,16 +976,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.007948428768508882</v>
+        <v>0.008064599382020783</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.006841373321321814</v>
+        <v>0.006214524872311921</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.002726085738389346</v>
+        <v>0.0027337440362826</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.002464495966077348</v>
+        <v>0.002481694930922981</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
@@ -998,16 +998,16 @@
         <v>0</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.007013429778737799</v>
+        <v>0.007035367950403855</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.003878225138759388</v>
+        <v>0.003828221780258968</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.002856741289501258</v>
+        <v>0.002917153831176567</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.002349780150283628</v>
+        <v>0.001834543231646892</v>
       </c>
     </row>
     <row r="12">
@@ -1018,38 +1018,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03937358200975476</v>
+        <v>0.03961454571332731</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05134974159495141</v>
+        <v>0.05287598947258752</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02648650917854785</v>
+        <v>0.02517353299482489</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02325019130454104</v>
+        <v>0.02386743836745127</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0214219138588763</v>
+        <v>0.02665333789281694</v>
       </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.01663619823204944</v>
+        <v>0.01722176229954879</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01235495056301862</v>
+        <v>0.01167394334773413</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02981015229774366</v>
+        <v>0.02880877361918587</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03099482660434069</v>
+        <v>0.03189862606222316</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01685676358122931</v>
+        <v>0.01725177759538449</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.01632152920321597</v>
+        <v>0.01446024360015118</v>
       </c>
     </row>
     <row r="13">
@@ -1108,40 +1108,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01281693896424134</v>
+        <v>0.01301971826147105</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01394335947462946</v>
+        <v>0.01439537071626534</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01126663425629642</v>
+        <v>0.01094889354728737</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.00768826738131229</v>
+        <v>0.007933357640002784</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.003933230639320762</v>
+        <v>0.003902136191402368</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0009630792345362535</v>
+        <v>0.0009595856740596809</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.002608867951547055</v>
+        <v>0.001943669329253638</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.006346721914698519</v>
+        <v>0.006087804091336139</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01116283748078772</v>
+        <v>0.01164475649040785</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01029304001807903</v>
+        <v>0.01017931116294178</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.008610770405873441</v>
+        <v>0.008706724920787948</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.008275952765066355</v>
+        <v>0.008193243150956648</v>
       </c>
     </row>
     <row r="15">
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02601311303635077</v>
+        <v>0.02572882220392149</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02669195179125535</v>
+        <v>0.02818127705884431</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02300448533105887</v>
+        <v>0.0225250621521257</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01707205226474958</v>
+        <v>0.0178509798986018</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0185296062380959</v>
+        <v>0.0184296980178311</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.007838732907150991</v>
+        <v>0.008626124392514744</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01296861795527906</v>
+        <v>0.01155771777007933</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02505695627270303</v>
+        <v>0.02376491879545332</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02079714728170491</v>
+        <v>0.02140319273544139</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.01870717192997092</v>
+        <v>0.01887592795799025</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0165587853955248</v>
+        <v>0.01654532931388863</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.01681138120806741</v>
+        <v>0.01738091338922844</v>
       </c>
     </row>
     <row r="16">
@@ -1455,16 +1455,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6630</v>
+        <v>6025</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4787</v>
+        <v>4849</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7120</v>
+        <v>7773</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4844</v>
+        <v>4972</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
@@ -1477,16 +1477,16 @@
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>8233</v>
+        <v>8375</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>4782</v>
+        <v>5152</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>8061</v>
+        <v>8367</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>5731</v>
+        <v>5484</v>
       </c>
     </row>
     <row r="7">
@@ -1497,38 +1497,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>20041</v>
+        <v>19006</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>17052</v>
+        <v>17151</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>23034</v>
+        <v>23140</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>15738</v>
+        <v>16145</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>11034</v>
+        <v>12018</v>
       </c>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="n">
-        <v>5516</v>
+        <v>5484</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>3047</v>
+        <v>3519</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>22993</v>
+        <v>23974</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>16899</v>
+        <v>17580</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>23816</v>
+        <v>23088</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>17131</v>
+        <v>17024</v>
       </c>
     </row>
     <row r="8">
@@ -1631,40 +1631,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>9997</v>
+        <v>9809</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>15496</v>
+        <v>15025</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>8416</v>
+        <v>8580</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3491</v>
+        <v>3077</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1015</v>
+        <v>1004</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1085</v>
+        <v>1009</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>4168</v>
+        <v>4055</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>12995</v>
+        <v>13686</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>17642</v>
+        <v>17246</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>11549</v>
+        <v>11997</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>10105</v>
+        <v>10535</v>
       </c>
     </row>
     <row r="11">
@@ -1675,40 +1675,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>27445</v>
+        <v>27936</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>33923</v>
+        <v>34746</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>24080</v>
+        <v>25008</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>13181</v>
+        <v>13962</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>10221</v>
+        <v>9204</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>8099</v>
+        <v>8134</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>10605</v>
+        <v>9477</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>19212</v>
+        <v>20289</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>33185</v>
+        <v>33001</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>38496</v>
+        <v>37418</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>29001</v>
+        <v>31019</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>30599</v>
+        <v>28510</v>
       </c>
     </row>
     <row r="12">
@@ -1811,16 +1811,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2786</v>
+        <v>2827</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2217</v>
+        <v>2014</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
@@ -1833,16 +1833,16 @@
         <v>0</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>3820</v>
+        <v>3832</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>2120</v>
+        <v>2093</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1869</v>
+        <v>1908</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1499</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="15">
@@ -1853,38 +1853,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>13801</v>
+        <v>13885</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>16643</v>
+        <v>17138</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9949</v>
+        <v>9456</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>8557</v>
+        <v>8784</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4159</v>
+        <v>5174</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>4633</v>
+        <v>4797</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>3334</v>
+        <v>3150</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>16236</v>
+        <v>15690</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>16944</v>
+        <v>17438</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>11027</v>
+        <v>11285</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>10411</v>
+        <v>9223</v>
       </c>
     </row>
     <row r="16">
@@ -1987,40 +1987,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>24095</v>
+        <v>24476</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>28257</v>
+        <v>29173</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>22201</v>
+        <v>21575</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>12857</v>
+        <v>13267</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3519</v>
+        <v>3491</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2943</v>
+        <v>2193</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>5738</v>
+        <v>5504</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>30971</v>
+        <v>32308</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>31570</v>
+        <v>31221</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>26682</v>
+        <v>26979</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>21322</v>
+        <v>21109</v>
       </c>
     </row>
     <row r="19">
@@ -2031,40 +2031,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>48903</v>
+        <v>48368</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>54093</v>
+        <v>57111</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>45331</v>
+        <v>44386</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>28549</v>
+        <v>29852</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>16576</v>
+        <v>16487</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>8157</v>
+        <v>8976</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>14631</v>
+        <v>13039</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>22654</v>
+        <v>21485</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>57702</v>
+        <v>59383</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>57377</v>
+        <v>57895</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>51311</v>
+        <v>51269</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>43312</v>
+        <v>44779</v>
       </c>
     </row>
     <row r="20">
